--- a/biology/Botanique/Jardin_botanique_de_Liberec/Jardin_botanique_de_Liberec.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Liberec/Jardin_botanique_de_Liberec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Liberec (en tchèque, Botanická zahrada Liberec) est un jardin botanique situé dans la ville de Liberec en République tchèque.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes carnivores
-La collection de plantes carnivores est l'œuvre de l'actuel directeur du jardin, Miroslav Studnicka. Ce botaniste a d'abord collectionné des espèces à son propre domicile, et devant l'ampleur de la collection, a décidé de la transférer dans les serres du jardin botanique. Considérablement enrichie depuis son installation, cette collection est aujourd'hui reconnue à l'échelle internationale.
+          <t>Plantes carnivores</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection de plantes carnivores est l'œuvre de l'actuel directeur du jardin, Miroslav Studnicka. Ce botaniste a d'abord collectionné des espèces à son propre domicile, et devant l'ampleur de la collection, a décidé de la transférer dans les serres du jardin botanique. Considérablement enrichie depuis son installation, cette collection est aujourd'hui reconnue à l'échelle internationale.
 			Sarracenia flava dans une serre du jardin (2010).
 			Sarracenia leucophylla dans une serre du jardin (2010).
 </t>
